--- a/src/kraken_files/excel_files/SCUSD.xlsx
+++ b/src/kraken_files/excel_files/SCUSD.xlsx
@@ -489,19 +489,19 @@
         <v>1750</v>
       </c>
       <c r="D2" t="n">
-        <v>0.019748957184</v>
+        <v>0.02019779712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.020190120192</v>
+        <v>0.02064898656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02039202139392</v>
+        <v>0.0208554764256</v>
       </c>
       <c r="G2" t="n">
         <v>3.153508901828295</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5944436112384001</v>
+        <v>0.607953693312</v>
       </c>
     </row>
     <row r="3">
@@ -515,19 +515,19 @@
         <v>4375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01870661320704</v>
+        <v>0.0191317635072</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01944836669952</v>
+        <v>0.0198903750336</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0196428503665152</v>
+        <v>0.020089278783936</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>4.766299910684979</v>
       </c>
       <c r="H3" t="n">
-        <v>1.381483385339904</v>
+        <v>1.41288073500672</v>
       </c>
     </row>
     <row r="4">
@@ -541,19 +541,19 @@
         <v>10937.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01708055660256</v>
+        <v>0.0174687510708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01826446165104</v>
+        <v>0.0186795630522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0184471062675504</v>
+        <v>0.018866358682722</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>7.40793512635769</v>
       </c>
       <c r="H4" t="n">
-        <v>3.129584983504056</v>
+        <v>3.20071191494733</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>27343.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.014543908300416</v>
+        <v>0.01487445167088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016404184975728</v>
+        <v>0.01677700736154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01656822682548528</v>
+        <v>0.0169447774351554</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21807587735019</v>
+        <v>12.2180758773502</v>
       </c>
       <c r="H5" t="n">
-        <v>6.641657524238722</v>
+        <v>6.792604286153238</v>
       </c>
     </row>
     <row r="6">
@@ -593,19 +593,19 @@
         <v>68359.375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01058673694848</v>
+        <v>0.0108273446064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.013495460962104</v>
+        <v>0.01380217598397</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01363041557172504</v>
+        <v>0.0139401977438097</v>
       </c>
       <c r="G6" t="n">
         <v>22.33005007975585</v>
       </c>
       <c r="H6" t="n">
-        <v>12.07159297261025</v>
+        <v>12.34594735835139</v>
       </c>
     </row>
   </sheetData>
@@ -642,21 +642,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OGATMG-6XZTW-ILAJMY</t>
+          <t>O5IKCL-HXQ2C-BYVMJV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02105</v>
+        <v>0.02153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OR4ULI-5JH76-INGSXI</t>
+          <t>ODOSTM-YYPSC-7CLZAT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02083</v>
+        <v>0.02131</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +688,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OYRAKC-NPBK3-6MTITY</t>
+          <t>ODCHBJ-GFI22-TEMDGI</t>
         </is>
       </c>
     </row>
